--- a/data/sp-500-sales-growth.xlsx
+++ b/data/sp-500-sales-growth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_____UPDATES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091001499648/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E665A40-5418-4774-AEF5-56D730070DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9E665A40-5418-4774-AEF5-56D730070DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A4F9D5-E535-40FB-9D93-90814CC3C07C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -400,17 +400,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE687C3C-53F7-4F96-97CF-AADF98D3558F}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.47265625" customWidth="1"/>
-    <col min="2" max="2" width="16.68359375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -418,747 +420,755 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45657</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45565</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45473</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>5.38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45382</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>5.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45291</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>6.81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45199</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>7.5200000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45107</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>9.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45016</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>10.77</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>44926</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>11.88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>44834</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>13.469999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>44742</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>13.71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>44651</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>15.97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44469</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>10.77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>44377</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>6.58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>44286</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>-1.06</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44196</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>-3.7199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44104</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>-2.04</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44012</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>-0.45999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43921</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>3.47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43830</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>5.36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>43738</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>5.0200000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43646</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>6.64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>43555</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>43465</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>9.0499999999999989</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>43373</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3">
         <v>10.209999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>43281</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>43190</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3">
         <v>7.68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>43100</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>7.03</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>43008</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3">
         <v>5.6800000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>42916</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3">
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>42825</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3">
         <v>3.6799999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>42735</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3">
         <v>2.09</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>42551</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>42460</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3">
         <v>-2.4699999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>42369</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3">
         <v>-3.11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>42277</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3">
         <v>-1.6199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>42185</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3">
         <v>0.38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>42094</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>2.71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>42004</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
         <v>4.16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>41912</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="3">
         <v>3.54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>41820</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>3.2800000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>41729</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3">
         <v>2.75</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>41639</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B47" s="3">
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>41547</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B48" s="3">
         <v>3.56</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>41455</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3">
         <v>2.88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>41364</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B50" s="3">
         <v>2.48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>41274</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B51" s="3">
         <v>3.7600000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>41182</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3">
         <v>4.2700000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>41090</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>6.5699999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>40999</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B54" s="3">
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>40908</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>9.36</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>40816</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>9.19</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>40724</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B57" s="3">
         <v>8.07</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>40633</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>6.77</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>40543</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B59" s="3">
         <v>5.9799999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>40451</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>40359</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B61" s="3">
         <v>-1.1400000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>40268</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B62" s="3">
         <v>-7.9699999999999989</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>40178</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B63" s="3">
         <v>-12.86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>40086</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B64" s="3">
         <v>-16.46</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>39994</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B65" s="3">
         <v>-11.95</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>39903</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B66" s="3">
         <v>-4.75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>39813</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B67" s="3">
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>39721</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B68" s="3">
         <v>7.4899999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>39629</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B69" s="3">
         <v>8.6300000000000008</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>39538</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B70" s="3">
         <v>8.61</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>39447</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B71" s="3">
         <v>7.62</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>39355</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B72" s="3">
         <v>7.2900000000000009</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>39263</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B73" s="3">
         <v>7.4300000000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>39172</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B74" s="3">
         <v>7.48</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>39082</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B75" s="3">
         <v>8.94</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>38990</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B76" s="3">
         <v>9.9599999999999991</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>38898</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B77" s="3">
         <v>10.85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>38807</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B78" s="3">
         <v>11.29</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>38717</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B79" s="3">
         <v>10.93</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>38625</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B80" s="3">
         <v>12.559999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="1">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>38533</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B81" s="3">
         <v>11.99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="1">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>38442</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B82" s="3">
         <v>11.01</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="1">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>38352</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B83" s="3">
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>38260</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B84" s="3">
         <v>8.4500000000000011</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="1">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>38168</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B85" s="3">
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="1">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>38077</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B86" s="3">
         <v>7.12</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="1">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>37986</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B87" s="3">
         <v>5.37</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="1">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>37894</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>37802</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B89" s="3">
         <v>-3.64</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="1">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>37711</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B90" s="3">
         <v>-5.4899999999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="1">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>37621</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B91" s="3">
         <v>-8.4500000000000011</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="1">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>37529</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B92" s="3">
         <v>-5.56</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>37437</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B93" s="3">
         <v>-5.07</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>37346</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B94" s="3">
         <v>-4.43</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="1">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>37256</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B95" s="3">
         <v>-1.18</v>
       </c>
     </row>

--- a/data/sp-500-sales-growth.xlsx
+++ b/data/sp-500-sales-growth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wopi.dropbox.com/wopi/files/oid_18311636091001499648/WOPIServiceId_TP_DROPBOX_PLUS/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9E665A40-5418-4774-AEF5-56D730070DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A4F9D5-E535-40FB-9D93-90814CC3C07C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{9E665A40-5418-4774-AEF5-56D730070DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D9C2759-F063-46F0-8725-8B218F75E40F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="750" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE687C3C-53F7-4F96-97CF-AADF98D3558F}">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -422,753 +422,761 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45747</v>
+        <v>45930</v>
       </c>
       <c r="B2" s="3">
-        <v>3.5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45657</v>
+        <v>45747</v>
       </c>
       <c r="B3" s="3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45565</v>
+        <v>45657</v>
       </c>
       <c r="B4" s="3">
-        <v>7</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="3">
-        <v>5.38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B6" s="3">
-        <v>5.71</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B7" s="3">
-        <v>6.81</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B8" s="3">
-        <v>7.5200000000000005</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B9" s="3">
-        <v>9.5</v>
+        <v>7.5200000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B10" s="3">
-        <v>10.77</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B11" s="3">
-        <v>11.88</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B12" s="3">
-        <v>13.469999999999999</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B13" s="3">
-        <v>13.71</v>
+        <v>13.469999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B14" s="3">
-        <v>15.97</v>
+        <v>13.71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B15" s="3">
-        <v>15</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B16" s="3">
-        <v>10.77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B17" s="3">
-        <v>6.58</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B18" s="3">
-        <v>-1.06</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="B19" s="3">
-        <v>-3.7199999999999998</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B20" s="3">
-        <v>-2.04</v>
+        <v>-3.7199999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.45999999999999996</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B22" s="3">
-        <v>3.47</v>
+        <v>-0.45999999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B23" s="3">
-        <v>5.36</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B24" s="3">
-        <v>5.0200000000000005</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B25" s="3">
-        <v>6.64</v>
+        <v>5.0200000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B26" s="3">
-        <v>8.1199999999999992</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B27" s="3">
-        <v>9.0499999999999989</v>
+        <v>8.1199999999999992</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B28" s="3">
-        <v>10.209999999999999</v>
+        <v>9.0499999999999989</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B29" s="3">
-        <v>9.0300000000000011</v>
+        <v>10.209999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B30" s="3">
-        <v>7.68</v>
+        <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B31" s="3">
-        <v>7.03</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B32" s="3">
-        <v>5.6800000000000006</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B33" s="3">
-        <v>4.83</v>
+        <v>5.6800000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B34" s="3">
-        <v>3.6799999999999997</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B35" s="3">
-        <v>2.09</v>
+        <v>3.6799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B36" s="3">
-        <v>0.2</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B37" s="3">
-        <v>-1.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B38" s="3">
-        <v>-2.4699999999999998</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B39" s="3">
-        <v>-3.11</v>
+        <v>-2.4699999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42277</v>
+        <v>42369</v>
       </c>
       <c r="B40" s="3">
-        <v>-1.6199999999999999</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42185</v>
+        <v>42277</v>
       </c>
       <c r="B41" s="3">
-        <v>0.38</v>
+        <v>-1.6199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42094</v>
+        <v>42185</v>
       </c>
       <c r="B42" s="3">
-        <v>2.71</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42004</v>
+        <v>42094</v>
       </c>
       <c r="B43" s="3">
-        <v>4.16</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41912</v>
+        <v>42004</v>
       </c>
       <c r="B44" s="3">
-        <v>3.54</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>41820</v>
+        <v>41912</v>
       </c>
       <c r="B45" s="3">
-        <v>3.2800000000000002</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41729</v>
+        <v>41820</v>
       </c>
       <c r="B46" s="3">
-        <v>2.75</v>
+        <v>3.2800000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>41639</v>
+        <v>41729</v>
       </c>
       <c r="B47" s="3">
-        <v>2.2399999999999998</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>41547</v>
+        <v>41639</v>
       </c>
       <c r="B48" s="3">
-        <v>3.56</v>
+        <v>2.2399999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>41455</v>
+        <v>41547</v>
       </c>
       <c r="B49" s="3">
-        <v>2.88</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>41364</v>
+        <v>41455</v>
       </c>
       <c r="B50" s="3">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>41274</v>
+        <v>41364</v>
       </c>
       <c r="B51" s="3">
-        <v>3.7600000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>41182</v>
+        <v>41274</v>
       </c>
       <c r="B52" s="3">
-        <v>4.2700000000000005</v>
+        <v>3.7600000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>41090</v>
+        <v>41182</v>
       </c>
       <c r="B53" s="3">
-        <v>6.5699999999999994</v>
+        <v>4.2700000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>40999</v>
+        <v>41090</v>
       </c>
       <c r="B54" s="3">
-        <v>8.9700000000000006</v>
+        <v>6.5699999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40908</v>
+        <v>40999</v>
       </c>
       <c r="B55" s="3">
-        <v>9.36</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40816</v>
+        <v>40908</v>
       </c>
       <c r="B56" s="3">
-        <v>9.19</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>40724</v>
+        <v>40816</v>
       </c>
       <c r="B57" s="3">
-        <v>8.07</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>40633</v>
+        <v>40724</v>
       </c>
       <c r="B58" s="3">
-        <v>6.77</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>40543</v>
+        <v>40633</v>
       </c>
       <c r="B59" s="3">
-        <v>5.9799999999999995</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>40451</v>
+        <v>40543</v>
       </c>
       <c r="B60" s="3">
-        <v>4.8099999999999996</v>
+        <v>5.9799999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>40359</v>
+        <v>40451</v>
       </c>
       <c r="B61" s="3">
-        <v>-1.1400000000000001</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>40268</v>
+        <v>40359</v>
       </c>
       <c r="B62" s="3">
-        <v>-7.9699999999999989</v>
+        <v>-1.1400000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>40178</v>
+        <v>40268</v>
       </c>
       <c r="B63" s="3">
-        <v>-12.86</v>
+        <v>-7.9699999999999989</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>40086</v>
+        <v>40178</v>
       </c>
       <c r="B64" s="3">
-        <v>-16.46</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>39994</v>
+        <v>40086</v>
       </c>
       <c r="B65" s="3">
-        <v>-11.95</v>
+        <v>-16.46</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>39903</v>
+        <v>39994</v>
       </c>
       <c r="B66" s="3">
-        <v>-4.75</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>39813</v>
+        <v>39903</v>
       </c>
       <c r="B67" s="3">
-        <v>1.7000000000000002</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>39721</v>
+        <v>39813</v>
       </c>
       <c r="B68" s="3">
-        <v>7.4899999999999993</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39629</v>
+        <v>39721</v>
       </c>
       <c r="B69" s="3">
-        <v>8.6300000000000008</v>
+        <v>7.4899999999999993</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>39538</v>
+        <v>39629</v>
       </c>
       <c r="B70" s="3">
-        <v>8.61</v>
+        <v>8.6300000000000008</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>39447</v>
+        <v>39538</v>
       </c>
       <c r="B71" s="3">
-        <v>7.62</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>39355</v>
+        <v>39447</v>
       </c>
       <c r="B72" s="3">
-        <v>7.2900000000000009</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>39263</v>
+        <v>39355</v>
       </c>
       <c r="B73" s="3">
-        <v>7.4300000000000006</v>
+        <v>7.2900000000000009</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>39172</v>
+        <v>39263</v>
       </c>
       <c r="B74" s="3">
-        <v>7.48</v>
+        <v>7.4300000000000006</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>39082</v>
+        <v>39172</v>
       </c>
       <c r="B75" s="3">
-        <v>8.94</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>38990</v>
+        <v>39082</v>
       </c>
       <c r="B76" s="3">
-        <v>9.9599999999999991</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>38898</v>
+        <v>38990</v>
       </c>
       <c r="B77" s="3">
-        <v>10.85</v>
+        <v>9.9599999999999991</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>38807</v>
+        <v>38898</v>
       </c>
       <c r="B78" s="3">
-        <v>11.29</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>38717</v>
+        <v>38807</v>
       </c>
       <c r="B79" s="3">
-        <v>10.93</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>38625</v>
+        <v>38717</v>
       </c>
       <c r="B80" s="3">
-        <v>12.559999999999999</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>38533</v>
+        <v>38625</v>
       </c>
       <c r="B81" s="3">
-        <v>11.99</v>
+        <v>12.559999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>38442</v>
+        <v>38533</v>
       </c>
       <c r="B82" s="3">
-        <v>11.01</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>38352</v>
+        <v>38442</v>
       </c>
       <c r="B83" s="3">
-        <v>10.879999999999999</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>38260</v>
+        <v>38352</v>
       </c>
       <c r="B84" s="3">
-        <v>8.4500000000000011</v>
+        <v>10.879999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>38168</v>
+        <v>38260</v>
       </c>
       <c r="B85" s="3">
-        <v>8.0399999999999991</v>
+        <v>8.4500000000000011</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="B86" s="3">
-        <v>7.12</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>37986</v>
+        <v>38077</v>
       </c>
       <c r="B87" s="3">
-        <v>5.37</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>37894</v>
+        <v>37986</v>
       </c>
       <c r="B88" s="3">
-        <v>0.02</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>37802</v>
+        <v>37894</v>
       </c>
       <c r="B89" s="3">
-        <v>-3.64</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>37711</v>
+        <v>37802</v>
       </c>
       <c r="B90" s="3">
-        <v>-5.4899999999999993</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>37621</v>
+        <v>37711</v>
       </c>
       <c r="B91" s="3">
-        <v>-8.4500000000000011</v>
+        <v>-5.4899999999999993</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>37529</v>
+        <v>37621</v>
       </c>
       <c r="B92" s="3">
-        <v>-5.56</v>
+        <v>-8.4500000000000011</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>37437</v>
+        <v>37529</v>
       </c>
       <c r="B93" s="3">
-        <v>-5.07</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>37346</v>
+        <v>37437</v>
       </c>
       <c r="B94" s="3">
-        <v>-4.43</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
+        <v>37346</v>
+      </c>
+      <c r="B95" s="3">
+        <v>-4.43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>37256</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B96" s="3">
         <v>-1.18</v>
       </c>
     </row>
